--- a/biology/Botanique/Pyracantha_coccinea/Pyracantha_coccinea.xlsx
+++ b/biology/Botanique/Pyracantha_coccinea/Pyracantha_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyracantha coccinea, le buisson ardent, est une espèce d'arbuste de la famille des Rosacées, sous-famille des Maloideae. Originaire d'Europe du sud-est, du Caucase et d'Asie mineure, il a été introduit dans de nombreuses autres régions pour son caractère ornemental. Il est aujourd'hui totalement naturalisé dans le Sud de la France. Espèce cultivée dans les jardins depuis la fin du XVIe siècle. Plante introduite en Amérique du Nord à la même période, pour agrémenter les jardins. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbrisseau touffu à rameaux très épineux.
 Feuilles en ellipses, crénelées, glabres et luisantes en dessus, pubescentes en dessous, persistantes.
@@ -544,9 +558,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (15 août 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (15 août 2014) :
 Pyracantha coccinea var. lalandei hort. ex Dippel aux fruits jaunes et plus nombreux que le type. Variété obtenue en Anjou, France.</t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits sont techniquement comestibles crus bien que très amers et astringents. À consommer cuits de préférence, en compote[3], gelée, confiture, sauces. Les graines peuvent remplacer le café[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont techniquement comestibles crus bien que très amers et astringents. À consommer cuits de préférence, en compote, gelée, confiture, sauces. Les graines peuvent remplacer le café.
 </t>
         </is>
       </c>
